--- a/6月/途礼商城/开发环境/结合测试/途礼商城（订单结算-王倩）.xlsx
+++ b/6月/途礼商城/开发环境/结合测试/途礼商城（订单结算-王倩）.xlsx
@@ -93,15 +93,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.任意选择一个商品：
-扬州喜行旅游用品有限公司：针线包
-点击购买按钮，成功跳转至订单结算页面
-2.点击立即下单按钮，成功跳转至订单列表页
-3.点击去支付，成功跳转至订单付款页面
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.任意选择一个商品：
 扬州喜行旅游用品有限公司：针线包 
 点击购买按钮，成功跳转至订单结算页面
@@ -225,6 +216,16 @@
   </si>
   <si>
     <t>页面订单编号/商品/供应商/订单金额/订单日期/状态/操作显示正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.任意选择一个商品：
+扬州喜行旅游用品有限公司：针线包
+点击购买按钮，成功跳转至订单结算页面
+（ps：结算信息中内容默认填写完整）
+2.点击立即下单按钮，成功跳转至订单列表页
+3.点击去支付，成功跳转至订单付款页面
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -737,7 +738,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -814,7 +815,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>18</v>
@@ -831,10 +832,10 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="11"/>
@@ -844,7 +845,7 @@
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>19</v>
@@ -859,10 +860,10 @@
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="11"/>
@@ -872,13 +873,13 @@
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="E10" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -887,10 +888,10 @@
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="11"/>
@@ -900,10 +901,10 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="9"/>
@@ -913,10 +914,10 @@
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="11"/>
@@ -926,10 +927,10 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="9"/>
@@ -939,10 +940,10 @@
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="11"/>
@@ -952,10 +953,10 @@
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
@@ -965,10 +966,10 @@
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="11"/>
@@ -978,10 +979,10 @@
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="9"/>
